--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_end.xlsx
@@ -3072,7 +3072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자"]  나, 난 라이타니엔의 아츠는 잘 몰라. 누가 어서 라이타니엔인을…… 잠깐, 머리 위에 저건 뭐지, 드론?!
+    <t xml:space="preserve">[name="무장 감염자"]  나, 난 라이타니아의 아츠는 잘 몰라. 누가 어서 라이타니아인을…… 잠깐, 머리 위에 저건 뭐지, 드론?!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_end.xlsx
@@ -2232,7 +2232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  But that’s after. After “you” and after “us.”
+    <t xml:space="preserve">[name="Folinic"]  But that’s after. After 'you' and after 'us.'
 </t>
   </si>
   <si>
@@ -2372,7 +2372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  And stop calling your Arts monsters “friends.” It’s creepy.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  And stop calling your Arts monsters 'friends.' It’s creepy.
 </t>
   </si>
   <si>
@@ -2600,7 +2600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Us, the Sarkaz, the “devils,” we’re enough to take on anyone.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Us, the Sarkaz, the 'devils,' we’re enough to take on anyone.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_end.xlsx
@@ -1836,7 +1836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wounded Townsfolk"]  Ah! Schultz! That’s where you were!
+    <t xml:space="preserve">[name="Wounded Townsfolk"]  Ah! Schultz! That's where you were!
 </t>
   </si>
   <si>
@@ -1844,7 +1844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  *cough*... There are so many wounded. If this keeps up, we’ll run out of beds.
+    <t xml:space="preserve">[name="Severin"]  *cough*... There are so many wounded. If this keeps up, we'll run out of beds.
 </t>
   </si>
   <si>
@@ -1852,7 +1852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wounded Townsfolk"]  I- I’m not sure. I heard someone burned to death in front of her, and she...
+    <t xml:space="preserve">[name="Wounded Townsfolk"]  I- I'm not sure. I heard someone burned to death in front of her, and she...
 </t>
   </si>
   <si>
@@ -1864,7 +1864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  I- I’m sorry... I just...
+    <t xml:space="preserve">[name="Tatjana"]  I- I'm sorry... I just...
 </t>
   </si>
   <si>
@@ -1872,23 +1872,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  But it’s still chaos out there!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I’ll go. Between me, and the Rhodes Island team...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  We’ll figure it out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  No... Don’t tell me...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Take her to a bed. I’m taking command.
+    <t xml:space="preserve">[name="Tatjana"]  But it's still chaos out there!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I'll go. Between me, and the Rhodes Island team...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  We'll figure it out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  No... Don't tell me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Take her to a bed. I'm taking command.
 </t>
   </si>
   <si>
@@ -1896,19 +1896,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Uncle...! Promise me! Promise me you won’t get yourself killed!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  It’s pointless.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  It’s pointless to even say it’s pointless.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Have some hope, at least. There’s always a chance to turn things around.
+    <t xml:space="preserve">[name="Tatjana"]  Uncle...! Promise me! Promise me you won't get yourself killed!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  It's pointless.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  It's pointless to even say it's pointless.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Have some hope, at least. There's always a chance to turn things around.
 </t>
   </si>
   <si>
@@ -1924,7 +1924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  If you keep holding back, we won’t make it out in one piece.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  If you keep holding back, we won't make it out in one piece.
 </t>
   </si>
   <si>
@@ -1944,7 +1944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Don’t you dare... speak her name.
+    <t xml:space="preserve">[name="Folinic"]  Don't you dare... speak her name.
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Delaying the time it takes for Mudrock’s Arts to activate... what a strange ability.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Delaying the time it takes for Mudrock's Arts to activate... what a strange ability.
 </t>
   </si>
   <si>
@@ -1992,7 +1992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You’re lucky. If you were a few years older, I’d have already hacked off your dominant hand.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You're lucky. If you were a few years older, I'd have already hacked off your dominant hand.
 </t>
   </si>
   <si>
@@ -2000,7 +2000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Don’t try to run.
+    <t xml:space="preserve">[name="Mudrock"]  Don't try to run.
 </t>
   </si>
   <si>
@@ -2008,11 +2008,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  You’re just a medic. Don’t try to fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Severin! You can’t!
+    <t xml:space="preserve">[name="Severin"]  You're just a medic. Don't try to fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Severin! You can't!
 </t>
   </si>
   <si>
@@ -2036,15 +2036,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Wait, Biederman... Biederman’s still alive? What are you talking about?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Don’t listen to his bullshit! Does it even matter who the real murderer is?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  What we’re fighting for is the end marginalization of the Infected, and the end to the aristocracy’s exploitation of the working class! Winterwisp will rightfully reclaim its land!
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Wait, Biederman... Biederman's still alive? What are you talking about?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Don't listen to his bullshit! Does it even matter who the real murderer is?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  What we're fighting for is the end marginalization of the Infected, and the end to the aristocracy's exploitation of the working class! Winterwisp will rightfully reclaim its land!
 </t>
   </si>
   <si>
@@ -2052,11 +2052,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Look, Severin, it’s useless...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Then kill me, Reunion. Let’s have a good fight.
+    <t xml:space="preserve">[name="Mudrock"]  Look, Severin, it's useless...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Then kill me, Reunion. Let's have a good fight.
 </t>
   </si>
   <si>
@@ -2068,7 +2068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  It may be a dead end. But I’d rather believe Rhodes Island can keep things from getting worse.
+    <t xml:space="preserve">[name="Severin"]  It may be a dead end. But I'd rather believe Rhodes Island can keep things from getting worse.
 </t>
   </si>
   <si>
@@ -2076,11 +2076,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  You see how bruised and battered you are. Your mask is half broken. Your giant is falling apart. And you’re exhausted, aren’t you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I can tell. We’re not so different, you and I.
+    <t xml:space="preserve">[name="Severin"]  You see how bruised and battered you are. Your mask is half broken. Your giant is falling apart. And you're exhausted, aren't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I can tell. We're not so different, you and I.
 </t>
   </si>
   <si>
@@ -2092,11 +2092,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  It’ll be my last cigarette anyway... Forget it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  (Do it. Now. Don’t give them a chance to save me.)
+    <t xml:space="preserve">[name="Severin"]  It'll be my last cigarette anyway... Forget it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  (Do it. Now. Don't give them a chance to save me.)
 </t>
   </si>
   <si>
@@ -2132,7 +2132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Don’t die!
+    <t xml:space="preserve">[name="Suzuran"]  Don't die!
 </t>
   </si>
   <si>
@@ -2140,7 +2140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Hey! Mudrock’s in trouble! Let’s go help him! Don’t let up!
+    <t xml:space="preserve">[name="Armed Infected"]  Hey! Mudrock's in trouble! Let's go help him! Don't let up!
 </t>
   </si>
   <si>
@@ -2164,7 +2164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Until you’re satisfied.
+    <t xml:space="preserve">[name="Ayerscarpe"]  Until you're satisfied.
 </t>
   </si>
   <si>
@@ -2172,19 +2172,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  I, I don’t know Leithanien Arts. Go get us a Leithanien. What, what’s that up there? A drone?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Don’t look up! Look behind you! There’s something with red eyes...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Click"]  You probably shouldn’t move. GreyThroat has you in her sights.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Click"]  Oh and you don’t want to turn around and look for her either. I’m watching you too.
+    <t xml:space="preserve">[name="Armed Infected"]  I, I don't know Leithanien Arts. Go get us a Leithanien. What, what's that up there? A drone?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Don't look up! Look behind you! There's something with red eyes...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Click"]  You probably shouldn't move. GreyThroat has you in her sights.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Click"]  Oh and you don't want to turn around and look for her either. I'm watching you too.
 </t>
   </si>
   <si>
@@ -2196,27 +2196,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Drop your weapon. You’re not getting away this time, Mudrock.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  You’ll leave them hating Wolumonde same as they always did!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Doesn’t matter. They don’t really want change. They only care about what’s good for them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  They could have worked together to get through the crisis. They didn’t. They didn’t care about the truth. They just wanted to loot and riot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Miss Tatjana is right. Even if you sacrifice yourself, it won’t help anything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  No matter how complex the backstory here is, a Rhodes Island operator won’t sit by while Infected rioters destroy a town.
+    <t xml:space="preserve">[name="GreyThroat"]  Drop your weapon. You're not getting away this time, Mudrock.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  You'll leave them hating Wolumonde same as they always did!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  Doesn't matter. They don't really want change. They only care about what's good for them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  They could have worked together to get through the crisis. They didn't. They didn't care about the truth. They just wanted to loot and riot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  Miss Tatjana is right. Even if you sacrifice yourself, it won't help anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  No matter how complex the backstory here is, a Rhodes Island operator won't sit by while Infected rioters destroy a town.
 </t>
   </si>
   <si>
@@ -2232,11 +2232,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  But that’s after. After 'you' and after 'us.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  As long as we’re still here, we’ll fight to the end. So Atro can rest in peace.
+    <t xml:space="preserve">[name="Folinic"]  But that's after. After 'you' and after 'us.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  As long as we're still here, we'll fight to the end. So Atro can rest in peace.
 </t>
   </si>
   <si>
@@ -2260,7 +2260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  There’s always a justification. But for now, you’re not solving the problem. You’re only causing destruction.
+    <t xml:space="preserve">[name="Folinic"]  There's always a justification. But for now, you're not solving the problem. You're only causing destruction.
 </t>
   </si>
   <si>
@@ -2312,7 +2312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  It doesn’t matter if you want to take back your land or get revenge on the rich... You will only end up a corpse in the snow.
+    <t xml:space="preserve">[name="Mudrock"]  It doesn't matter if you want to take back your land or get revenge on the rich... You will only end up a corpse in the snow.
 </t>
   </si>
   <si>
@@ -2320,11 +2320,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  The murderer is dead. It’s time to leave.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  B-but we have to take back Wolumonde! It’s our land!
+    <t xml:space="preserve">[name="Mudrock"]  The murderer is dead. It's time to leave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  B-but we have to take back Wolumonde! It's our land!
 </t>
   </si>
   <si>
@@ -2332,7 +2332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don’t question the leader. Wise up, or you’ll be six feet under.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don't question the leader. Wise up, or you'll be six feet under.
 </t>
   </si>
   <si>
@@ -2340,7 +2340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  This isn’t over!
+    <t xml:space="preserve">[name="Armed Infected"]  This isn't over!
 </t>
   </si>
   <si>
@@ -2364,7 +2364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You don’t need to go that far just to stop them. They were on our side until a minute ago.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You don't need to go that far just to stop them. They were on our side until a minute ago.
 </t>
   </si>
   <si>
@@ -2372,15 +2372,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  And stop calling your Arts monsters 'friends.' It’s creepy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  You don’t have to listen. Leave me alone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  I have decided to retreat. I can’t force you all to listen, but...
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  And stop calling your Arts monsters 'friends.' It's creepy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  You don't have to listen. Leave me alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  I have decided to retreat. I can't force you all to listen, but...
 </t>
   </si>
   <si>
@@ -2388,7 +2388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Those who stay... you’re on your own.
+    <t xml:space="preserve">[name="Mudrock"]  Those who stay... you're on your own.
 </t>
   </si>
   <si>
@@ -2404,11 +2404,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Defeated warriors... are lucky to leave the battlefield alive. Don’t dawdle. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Pfah! Forget about Reunion then! It’s only a matter of time before we take the Rathaus. This town needs us!
+    <t xml:space="preserve">[name="Mudrock"]  Defeated warriors... are lucky to leave the battlefield alive. Don't dawdle. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Pfah! Forget about Reunion then! It's only a matter of time before we take the Rathaus. This town needs us!
 </t>
   </si>
   <si>
@@ -2416,11 +2416,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I told you they wouldn’t go down easily *cough* *cough*—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  They’re coming! Eyes left!
+    <t xml:space="preserve">[name="Severin"]  I told you they wouldn't go down easily *cough* *cough*—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  They're coming! Eyes left!
 </t>
   </si>
   <si>
@@ -2436,7 +2436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  They’re going to use Arts. Prepare the defenses. Target the casters.
+    <t xml:space="preserve">[name="GreyThroat"]  They're going to use Arts. Prepare the defenses. Target the casters.
 </t>
   </si>
   <si>
@@ -2452,11 +2452,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Leader’s orders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Even if we have to fight you, devil, we’re not giving up!
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Leader's orders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Even if we have to fight you, devil, we're not giving up!
 </t>
   </si>
   <si>
@@ -2484,15 +2484,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Stop, Mudrock. You’re burning through your own life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Doesn’t matter.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You don’t have to use that ancient power—
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Stop, Mudrock. You're burning through your own life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Doesn't matter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You don't have to use that ancient power—
 </t>
   </si>
   <si>
@@ -2512,7 +2512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  It’s... huge!
+    <t xml:space="preserve">[name="Suzuran"]  It's... huge!
 </t>
   </si>
   <si>
@@ -2520,7 +2520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Fall back. Don’t be hasty.
+    <t xml:space="preserve">[name="GreyThroat"]  Fall back. Don't be hasty.
 </t>
   </si>
   <si>
@@ -2532,7 +2532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  That’s Sarkaz... witchcraft?
+    <t xml:space="preserve">[name="GreyThroat"]  That's Sarkaz... witchcraft?
 </t>
   </si>
   <si>
@@ -2544,7 +2544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  This is way too dangerous. You’re sharing your life with your own creation. It’s not worth it just to subdue them.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  This is way too dangerous. You're sharing your life with your own creation. It's not worth it just to subdue them.
 </t>
   </si>
   <si>
@@ -2572,11 +2572,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Wh-why...? Didn’t he come to help us? Is he not Reunion?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  I... I don’t care! Screw him!
+    <t xml:space="preserve">[name="Armed Infected"]  Wh-why...? Didn't he come to help us? Is he not Reunion?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  I... I don't care! Screw him!
 </t>
   </si>
   <si>
@@ -2588,19 +2588,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Now, sadly, it looks like we’re not on the same side.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Killing innocent people, and Rhodes Island’s warriors, that’s not our way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  And if we’re dealing with a bunch of rioters who don’t follow orders, why show mercy?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Us, the Sarkaz, the 'devils,' we’re enough to take on anyone.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Now, sadly, it looks like we're not on the same side.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Killing innocent people, and Rhodes Island's warriors, that's not our way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  And if we're dealing with a bunch of rioters who don't follow orders, why show mercy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Us, the Sarkaz, the 'devils,' we're enough to take on anyone.
 </t>
   </si>
   <si>
@@ -2616,7 +2616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Let’s figure out how to get back to Folinic.
+    <t xml:space="preserve">[name="Ayerscarpe"]  Let's figure out how to get back to Folinic.
 </t>
   </si>
   <si>
@@ -2624,7 +2624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Come on, let’s go. This town is done for. We have to find a way over the Great Rift before winter sets in!
+    <t xml:space="preserve">[name="Armed Infected"]  Come on, let's go. This town is done for. We have to find a way over the Great Rift before winter sets in!
 </t>
   </si>
   <si>
@@ -2636,15 +2636,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  There’s no reason to fight the Sarkaz. Fall back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Let’s go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Mudrock, that’s enough!
+    <t xml:space="preserve">[name="Armed Infected"]  There's no reason to fight the Sarkaz. Fall back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Let's go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Mudrock, that's enough!
 </t>
   </si>
   <si>
@@ -2664,11 +2664,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  It’s not what we intended, but a rebellion is about self-interest, at its core. Not so many people come with high-minded ideals.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  You’re right... So what do we do with our struggle...? With our deceased?
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  It's not what we intended, but a rebellion is about self-interest, at its core. Not so many people come with high-minded ideals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  You're right... So what do we do with our struggle...? With our deceased?
 </t>
   </si>
   <si>
@@ -2712,7 +2712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  It’s time... to say goodbye.
+    <t xml:space="preserve">[name="Mudrock"]  It's time... to say goodbye.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_08_end.xlsx
@@ -3072,7 +3072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자"]  나, 난 라이타니아의 아츠는 잘 몰라. 누가 어서 라이타니아인을…… 잠깐, 머리 위에 저건 뭐지, 드론?!
+    <t xml:space="preserve">[name="무장 감염자"]  나, 난 라이타니엔의 아츠는 잘 몰라. 누가 어서 라이타니엔인을…… 잠깐, 머리 위에 저건 뭐지, 드론?!
 </t>
   </si>
   <si>
